--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643040.4311005975</v>
+        <v>-645868.5083385305</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>77.62409129267637</v>
+        <v>55.25990710548172</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>221.0197406572885</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>35.0954497440396</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>171.7498680634317</v>
+        <v>101.625715293184</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>100.0150204661843</v>
       </c>
       <c r="H5" t="n">
-        <v>135.4095352681599</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>65.13635377833143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>136.1916198885551</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>286.4501212149477</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,13 +1190,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>159.5566675395125</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>95.40580701381936</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>49.94675160484169</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>140.4383865840207</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.3783204776929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571479</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.07731664460587</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.1280940168098</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.3106907504111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6100405317613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>155.6850131498963</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>222.8161206669567</v>
+        <v>250.7811435429985</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217528</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652629</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1450.442457308781</v>
       </c>
       <c r="C2" t="n">
-        <v>920.0552989279781</v>
+        <v>1450.442457308781</v>
       </c>
       <c r="D2" t="n">
-        <v>920.0552989279781</v>
+        <v>1092.176758702031</v>
       </c>
       <c r="E2" t="n">
-        <v>841.6471259050727</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>430.6612211154652</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>430.6612211154652</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2606.670452312312</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.035785284374</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.273999922466</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1803.211112578895</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1450.442457308781</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1450.442457308781</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1450.442457308781</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1293.1823753553</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626212</v>
+        <v>924.2198584148884</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626212</v>
+        <v>565.954159808138</v>
       </c>
       <c r="E5" t="n">
-        <v>769.0955750279682</v>
+        <v>565.954159808138</v>
       </c>
       <c r="F5" t="n">
-        <v>358.1096702383606</v>
+        <v>154.9682550185304</v>
       </c>
       <c r="G5" t="n">
-        <v>344.1862661769515</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,10 +4571,10 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>470.7225141620388</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>470.7225141620388</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>470.7225141620388</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.36022515632</v>
+        <v>1558.505482207785</v>
       </c>
       <c r="C8" t="n">
-        <v>882.0166683735445</v>
+        <v>1558.505482207785</v>
       </c>
       <c r="D8" t="n">
-        <v>882.0166683735445</v>
+        <v>1200.239783601035</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>1200.239783601035</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>454.1349237026561</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>593.4635795439093</v>
+        <v>1094.463253419559</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.496879136949</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782761</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2072.442488527912</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.594638687514</v>
+        <v>1911.2741374779</v>
       </c>
       <c r="W8" t="n">
-        <v>1544.8259834174</v>
+        <v>1558.505482207785</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.36022515632</v>
+        <v>1558.505482207785</v>
       </c>
       <c r="Y8" t="n">
-        <v>1171.36022515632</v>
+        <v>1558.505482207785</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>520.6009841418683</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.9342089920628</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>957.5081612455482</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>731.8789645579132</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>442.7267881355929</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>442.7267881355929</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>442.7267881355929</v>
+        <v>1003.426399032394</v>
       </c>
       <c r="X10" t="n">
-        <v>442.7267881355929</v>
+        <v>775.436848134377</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.9342089920628</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>774.5813465708488</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>626.6682529884557</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5419,16 +5419,16 @@
         <v>344.917417812163</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270429</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570816</v>
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5701,22 +5701,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.955258982919</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550122</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.243410069927</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>103.7108565902709</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>432.9862109052757</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>118.9001641222453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>118.9001641222453</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.394291958027</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504498</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>130.2918063575383</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>312.2066704284443</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>391.5614865245119</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>102.9030321070687</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139.3202630649319</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>124.0839400958531</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.982661438910498</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228884</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405091</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>15.00954930701818</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.97276993489202</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.63678056686649</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>56.43317025503488</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.36835372228745</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1175242.121270607</v>
+        <v>1175242.121270608</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>207271.1201254692</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592851</v>
@@ -26323,22 +26323,22 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682746</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601199.746323275</v>
+        <v>-601525.0914135567</v>
       </c>
       <c r="C6" t="n">
-        <v>-46468.9625671579</v>
+        <v>-46468.96256715781</v>
       </c>
       <c r="D6" t="n">
-        <v>-202272.7686609527</v>
+        <v>-202272.7686609526</v>
       </c>
       <c r="E6" t="n">
-        <v>-635708.7778643944</v>
+        <v>-635743.5157898301</v>
       </c>
       <c r="F6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="G6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="H6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909761</v>
       </c>
       <c r="I6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="J6" t="n">
-        <v>-41079.30567618106</v>
+        <v>-41114.04360161661</v>
       </c>
       <c r="K6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="L6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="M6" t="n">
         <v>-14156.20942609716</v>
       </c>
       <c r="N6" t="n">
+        <v>129480.0192755931</v>
+      </c>
+      <c r="O6" t="n">
         <v>129480.0192755934</v>
       </c>
-      <c r="O6" t="n">
-        <v>129480.0192755932</v>
-      </c>
       <c r="P6" t="n">
-        <v>129480.0192755933</v>
+        <v>129480.0192755934</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>304.3062787795854</v>
+        <v>326.6704629667801</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>53.95978732560545</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>313.7691495546106</v>
       </c>
       <c r="H5" t="n">
-        <v>188.5132374961972</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>80.28469424459982</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>88.84348556952918</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>78.82277055605982</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>168.1955909306224</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>109.9600748862993</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>236.5762467317493</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435295</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>213.6889321904599</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>452.9426864297102</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>592.2248619312439</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899059</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
